--- a/log/data_6o_proposed.xlsx
+++ b/log/data_6o_proposed.xlsx
@@ -531,23 +531,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0121629</t>
+          <t>0.0125729</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.000594</t>
+          <t>0.001178</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -557,27 +557,27 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.000248</t>
+          <t>0.000221</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.0130049</t>
+          <t>0.0139719</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.154264</t>
+          <t>0.106535</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.237925</t>
+          <t>0.180386</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -587,17 +587,17 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>18.4535</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>63.1711</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -624,18 +624,18 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0116509</t>
+          <t>0.0127089</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.000607</t>
+          <t>0.001332</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -645,47 +645,47 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.000208</t>
+          <t>0.000134</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.0124659</t>
+          <t>0.0141749</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.187472</t>
+          <t>0.0963087</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.260875</t>
+          <t>0.194442</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>14.4702</t>
+          <t>18.7148</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>54.7276</t>
+          <t>51.7797</t>
         </is>
       </c>
     </row>
@@ -712,18 +712,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0123659</t>
+          <t>0.0131129</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.000576</t>
+          <t>0.001189</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -733,27 +733,27 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.000322</t>
+          <t>0.000129</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.0132639</t>
+          <t>0.0144309</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.15786</t>
+          <t>0.098935</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.237585</t>
+          <t>0.180059</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -763,17 +763,17 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>19.2473</t>
+          <t>13.3688</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>62.274</t>
+          <t>47.972</t>
         </is>
       </c>
     </row>
@@ -795,23 +795,23 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0147268</t>
+          <t>0.0122159</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.000569</t>
+          <t>0.001034</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -821,27 +821,27 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.000171</t>
+          <t>0.000346</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.0154668</t>
+          <t>0.0135959</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.116082</t>
+          <t>0.0999609</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.192179</t>
+          <t>0.172124</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -851,17 +851,17 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>13.2901</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>50.9695</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -888,18 +888,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0125348</t>
+          <t>0.0122869</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.000628</t>
+          <t>0.001291</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -909,27 +909,27 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.000155</t>
+          <t>0.000104</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.0133178</t>
+          <t>0.0136819</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.113632</t>
+          <t>0.111609</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.197292</t>
+          <t>0.199322</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -939,17 +939,17 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>13.2277</t>
+          <t>13.8002</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>52.3258</t>
+          <t>44.426</t>
         </is>
       </c>
     </row>
@@ -976,18 +976,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0134308</t>
+          <t>0.0126059</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.000593</t>
+          <t>0.001131</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -997,27 +997,27 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.000193</t>
+          <t>0.000127</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.0142168</t>
+          <t>0.0138639</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.132242</t>
+          <t>0.0973348</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.211081</t>
+          <t>0.181689</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1027,17 +1027,17 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>13.3044</t>
+          <t>13.2419</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>49.8497</t>
+          <t>43.8525</t>
         </is>
       </c>
     </row>
@@ -1059,23 +1059,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0123769</t>
+          <t>0.0122569</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.000621</t>
+          <t>0.001111</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1085,27 +1085,27 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.000105</t>
+          <t>0.000113</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.0131029</t>
+          <t>0.0134809</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.131691</t>
+          <t>0.0962538</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.212637</t>
+          <t>0.184132</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1115,17 +1115,17 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15.3478</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45.4338</t>
         </is>
       </c>
     </row>
@@ -1147,23 +1147,23 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0130198</t>
+          <t>0.0121289</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.000642</t>
+          <t>0.001097</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1173,27 +1173,27 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.000164</t>
+          <t>0.000106</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.0138258</t>
+          <t>0.0133319</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.196885</t>
+          <t>0.118727</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.271122</t>
+          <t>0.20714</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1203,17 +1203,17 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14.0047</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47.109</t>
         </is>
       </c>
     </row>
@@ -1240,18 +1240,18 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0132358</t>
+          <t>0.0137559</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.000593</t>
+          <t>0.001146</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1261,27 +1261,27 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.000168</t>
+          <t>0.000112</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.0139968</t>
+          <t>0.0150139</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.151255</t>
+          <t>0.0959396</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.226973</t>
+          <t>0.185009</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1291,17 +1291,17 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>17.7635</t>
+          <t>13.4603</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>56.9853</t>
+          <t>42.0286</t>
         </is>
       </c>
     </row>
@@ -1323,23 +1323,23 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0133028</t>
+          <t>0.0117509</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.000573</t>
+          <t>0.001164</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1349,27 +1349,27 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.000216</t>
+          <t>0.000119</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.0140918</t>
+          <t>0.0130339</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.164853</t>
+          <t>0.123795</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.246582</t>
+          <t>0.212756</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1379,17 +1379,17 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13.5627</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52.5396</t>
         </is>
       </c>
     </row>
@@ -1411,23 +1411,23 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0128238</t>
+          <t>0.0121079</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.000578</t>
+          <t>0.001137</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1437,27 +1437,27 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.000192</t>
+          <t>0.000329</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.0135938</t>
+          <t>0.0135739</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.131232</t>
+          <t>0.0913089</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.213164</t>
+          <t>0.187255</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1467,17 +1467,17 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>13.8512</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>52.5658</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1499,23 +1499,23 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0132308</t>
+          <t>0.0129419</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.000588</t>
+          <t>0.001257</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1525,27 +1525,27 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.000468</t>
+          <t>0.000115</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.0142868</t>
+          <t>0.0143139</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.169745</t>
+          <t>0.10376</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.23377</t>
+          <t>0.19495</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1555,17 +1555,17 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15.3278</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45.9394</t>
         </is>
       </c>
     </row>
@@ -1587,23 +1587,23 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0111619</t>
+          <t>0.0125609</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.000616</t>
+          <t>0.001201</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1613,27 +1613,27 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.000199</t>
+          <t>0.000966</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.0119769</t>
+          <t>0.0147279</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.138672</t>
+          <t>0.127504</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0.218076</t>
+          <t>0.205234</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1643,17 +1643,17 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>18.5569</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>58.5028</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1680,18 +1680,18 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0125158</t>
+          <t>0.0130199</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.000583</t>
+          <t>0.001242</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1701,27 +1701,27 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.00018</t>
+          <t>0.000129</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.0132788</t>
+          <t>0.0143909</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.106306</t>
+          <t>0.107329</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.18666</t>
+          <t>0.198464</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1731,17 +1731,17 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>15.7261</t>
+          <t>18.3791</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>54.8052</t>
+          <t>52.0804</t>
         </is>
       </c>
     </row>
@@ -1774,12 +1774,12 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0127338</t>
+          <t>0.0142499</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.000575</t>
+          <t>0.001137</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1789,22 +1789,22 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.000389</t>
+          <t>0.000295</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.0136978</t>
+          <t>0.0156819</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.120113</t>
+          <t>0.119388</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.202094</t>
+          <t>0.195114</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1856,18 +1856,18 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0128988</t>
+          <t>0.0125429</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.000585</t>
+          <t>0.001148</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1877,27 +1877,27 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.000186</t>
+          <t>0.000126</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.0136698</t>
+          <t>0.0138169</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.142799</t>
+          <t>0.124287</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.222227</t>
+          <t>0.214752</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1907,17 +1907,17 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>13.7959</t>
+          <t>13.724</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>50.9365</t>
+          <t>44.4337</t>
         </is>
       </c>
     </row>
@@ -1944,18 +1944,18 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0116099</t>
+          <t>0.0126099</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.000576</t>
+          <t>0.001513</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1965,27 +1965,27 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.000342</t>
+          <t>0.000113</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.0125279</t>
+          <t>0.0142359</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.138081</t>
+          <t>0.120802</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.2154</t>
+          <t>0.21634</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1995,17 +1995,17 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>16.5892</t>
+          <t>16.4378</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>56.851</t>
+          <t>52.2257</t>
         </is>
       </c>
     </row>
@@ -2032,18 +2032,18 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0126359</t>
+          <t>0.0136509</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.000615</t>
+          <t>0.001086</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2053,27 +2053,27 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.000157</t>
+          <t>0.000109</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.0134079</t>
+          <t>0.0148459</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.125102</t>
+          <t>0.103471</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0.203595</t>
+          <t>0.188442</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2083,17 +2083,17 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>13.8013</t>
+          <t>13.6745</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>52.803</t>
+          <t>42.7391</t>
         </is>
       </c>
     </row>
@@ -2115,23 +2115,23 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0127939</t>
+          <t>0.0141089</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.000559</t>
+          <t>0.001005</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2141,27 +2141,27 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.00018</t>
+          <t>0.000544</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.0135329</t>
+          <t>0.0156579</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.118869</t>
+          <t>0.149466</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0.198093</t>
+          <t>0.238223</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2171,17 +2171,17 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>13.6521</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>45.9876</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2203,23 +2203,23 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0123748</t>
+          <t>0.0121239</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.000595</t>
+          <t>0.001085</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2229,27 +2229,27 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.000697</t>
+          <t>0.000143</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.0136668</t>
+          <t>0.0133519</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.0940531</t>
+          <t>0.123499</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.160991</t>
+          <t>0.218124</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2259,17 +2259,17 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15.8896</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49.9259</t>
         </is>
       </c>
     </row>
@@ -2296,18 +2296,18 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0126878</t>
+          <t>0.0125289</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.000621</t>
+          <t>0.001196</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2317,27 +2317,27 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.000204</t>
+          <t>0.000132</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.0135128</t>
+          <t>0.0138569</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.13008</t>
+          <t>0.115564</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0.209527</t>
+          <t>0.206619</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2347,17 +2347,17 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>13.7927</t>
+          <t>16.1599</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>54.4105</t>
+          <t>50.8509</t>
         </is>
       </c>
     </row>
@@ -2384,18 +2384,18 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0130608</t>
+          <t>0.0123129</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.000584</t>
+          <t>0.001146</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2405,27 +2405,27 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.000313</t>
+          <t>0.00012</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.0139578</t>
+          <t>0.0135789</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.159751</t>
+          <t>0.0979487</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.239468</t>
+          <t>0.193073</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2435,17 +2435,17 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>16.7774</t>
+          <t>14.2131</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>54.7958</t>
+          <t>47.3744</t>
         </is>
       </c>
     </row>
@@ -2472,18 +2472,18 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0123129</t>
+          <t>0.0124739</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.000581</t>
+          <t>0.001607</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2493,27 +2493,27 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.000171</t>
+          <t>0.000118</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.0130649</t>
+          <t>0.0141989</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.152503</t>
+          <t>0.0969699</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0.232286</t>
+          <t>0.184923</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2523,17 +2523,17 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>13.4111</t>
+          <t>18.109</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>50.5258</t>
+          <t>50.9698</t>
         </is>
       </c>
     </row>
@@ -2555,23 +2555,23 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0134628</t>
+          <t>0.0130339</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.000592</t>
+          <t>0.001163</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2581,27 +2581,27 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.000228</t>
+          <t>0.000164</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.0142828</t>
+          <t>0.0143609</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.195263</t>
+          <t>0.130326</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0.277843</t>
+          <t>0.219574</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2611,17 +2611,17 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13.6089</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50.6643</t>
         </is>
       </c>
     </row>
@@ -2654,12 +2654,12 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0138618</t>
+          <t>0.0123929</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.000606</t>
+          <t>0.00139</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2669,22 +2669,22 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.00025</t>
+          <t>0.000113</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.0147178</t>
+          <t>0.0138959</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.128691</t>
+          <t>0.108755</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0.211709</t>
+          <t>0.19626</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2704,12 +2704,12 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>23.6251</t>
+          <t>18.5506</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>54.7896</t>
+          <t>52.0374</t>
         </is>
       </c>
     </row>
@@ -2731,23 +2731,23 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0136988</t>
+          <t>0.0129249</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.000581</t>
+          <t>0.001267</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2757,27 +2757,27 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.000197</t>
+          <t>0.000205</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.0144768</t>
+          <t>0.0143969</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.13264</t>
+          <t>0.10405</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0.217381</t>
+          <t>0.172656</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2787,17 +2787,17 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>15.3963</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>54.4303</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2824,18 +2824,18 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0136398</t>
+          <t>0.0120579</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.000567</t>
+          <t>0.001001</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2845,27 +2845,27 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.000159</t>
+          <t>0.000137</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.0143658</t>
+          <t>0.0131959</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.125928</t>
+          <t>0.13224</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.207331</t>
+          <t>0.219371</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2875,17 +2875,17 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>13.5859</t>
+          <t>15.9437</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>50.0099</t>
+          <t>56.6875</t>
         </is>
       </c>
     </row>
@@ -2907,23 +2907,23 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0135088</t>
+          <t>0.0136399</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.000599</t>
+          <t>0.001475</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2933,27 +2933,27 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.00011</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.0145078</t>
+          <t>0.0152249</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.0980152</t>
+          <t>0.134227</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0.162547</t>
+          <t>0.217731</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2963,17 +2963,17 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13.4617</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42.4712</t>
         </is>
       </c>
     </row>
@@ -3000,18 +3000,18 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0123179</t>
+          <t>0.0120239</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.000566</t>
+          <t>0.001185</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -3021,27 +3021,27 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.000217</t>
+          <t>0.00014</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.0131009</t>
+          <t>0.0133489</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.145763</t>
+          <t>0.124507</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.22538</t>
+          <t>0.215253</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -3051,17 +3051,17 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>17.9766</t>
+          <t>15.8347</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>54.5249</t>
+          <t>43.2668</t>
         </is>
       </c>
     </row>
@@ -3083,23 +3083,23 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0131968</t>
+          <t>0.0129979</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.000564</t>
+          <t>0.00127</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3109,27 +3109,27 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.000122</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.0138608</t>
+          <t>0.0143899</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.128326</t>
+          <t>0.094886</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>0.204352</t>
+          <t>0.181984</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -3139,17 +3139,17 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15.8631</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47.8861</t>
         </is>
       </c>
     </row>
@@ -3171,23 +3171,23 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0133728</t>
+          <t>0.0118839</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.00059</t>
+          <t>0.00122</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -3197,27 +3197,27 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.000205</t>
+          <t>0.00031</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.0141678</t>
+          <t>0.0134139</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.111742</t>
+          <t>0.1139</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0.191543</t>
+          <t>0.18911</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -3227,17 +3227,17 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>13.834</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>49.7974</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3264,18 +3264,18 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0125958</t>
+          <t>0.0127679</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.000566</t>
+          <t>0.001202</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -3285,27 +3285,27 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.000296</t>
+          <t>0.000124</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.0134578</t>
+          <t>0.0140939</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.146547</t>
+          <t>0.12544</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0.225488</t>
+          <t>0.212173</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -3315,17 +3315,17 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>16.3855</t>
+          <t>13.5872</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>53.5454</t>
+          <t>45.4044</t>
         </is>
       </c>
     </row>
@@ -3352,18 +3352,18 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0122578</t>
+          <t>0.0123019</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.000593</t>
+          <t>0.001138</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3373,27 +3373,27 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0.000153</t>
+          <t>0.000103</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.0130038</t>
+          <t>0.0135429</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0.107429</t>
+          <t>0.0936008</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>0.187555</t>
+          <t>0.181192</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -3403,17 +3403,17 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>13.1224</t>
+          <t>13.9716</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>49.5321</t>
+          <t>43.4888</t>
         </is>
       </c>
     </row>
@@ -3440,18 +3440,18 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0130889</t>
+          <t>0.0127239</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.001109</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3461,27 +3461,27 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.000196</t>
+          <t>0.000159</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.0138849</t>
+          <t>0.0139919</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.134659</t>
+          <t>0.104963</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>0.217913</t>
+          <t>0.187974</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -3491,17 +3491,17 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>15.6717</t>
+          <t>16.5972</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>53.2366</t>
+          <t>60.4774</t>
         </is>
       </c>
     </row>
@@ -3528,18 +3528,18 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0125868</t>
+          <t>0.0122049</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.000593</t>
+          <t>0.00125</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3549,27 +3549,27 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.000148</t>
+          <t>0.00014</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.0133278</t>
+          <t>0.0135949</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.172724</t>
+          <t>0.0937569</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0.254726</t>
+          <t>0.185217</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -3579,17 +3579,17 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>12.8858</t>
+          <t>15.715</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>51.3245</t>
+          <t>46.9542</t>
         </is>
       </c>
     </row>
@@ -3616,18 +3616,18 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0136588</t>
+          <t>0.0124219</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.000587</t>
+          <t>0.00121</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3637,27 +3637,27 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.000217</t>
+          <t>0.000113</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.0144628</t>
+          <t>0.0137449</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.192383</t>
+          <t>0.0959919</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0.269949</t>
+          <t>0.185587</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3667,17 +3667,17 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>15.6601</t>
+          <t>13.6794</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>51.6454</t>
+          <t>41.8835</t>
         </is>
       </c>
     </row>
@@ -3704,18 +3704,18 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0120299</t>
+          <t>0.0125239</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.000598</t>
+          <t>0.001324</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3725,27 +3725,27 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>0.000204</t>
+          <t>0.000136</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0.0128319</t>
+          <t>0.0139839</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>0.130423</t>
+          <t>0.103542</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>0.212557</t>
+          <t>0.19864</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3755,17 +3755,17 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>15.6248</t>
+          <t>15.4438</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>53.317</t>
+          <t>46.5829</t>
         </is>
       </c>
     </row>
@@ -3792,18 +3792,18 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0122299</t>
+          <t>0.0130089</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.000619</t>
+          <t>0.001186</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3813,27 +3813,27 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>0.000186</t>
+          <t>0.000114</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0.0130349</t>
+          <t>0.0143089</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>0.131059</t>
+          <t>0.104071</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0.212365</t>
+          <t>0.194307</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3843,17 +3843,17 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>16.3099</t>
+          <t>13.4742</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>56.5725</t>
+          <t>44.1118</t>
         </is>
       </c>
     </row>
@@ -3886,12 +3886,12 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0128358</t>
+          <t>0.0122599</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.000593</t>
+          <t>0.001366</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3901,22 +3901,22 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>0.000333</t>
+          <t>0.000514</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.0137618</t>
+          <t>0.0141399</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>0.0933262</t>
+          <t>0.108285</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0.174508</t>
+          <t>0.182469</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3968,18 +3968,18 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.0135198</t>
+          <t>0.0125739</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.000617</t>
+          <t>0.001288</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3989,27 +3989,27 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0.000146</t>
+          <t>0.00012</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.0142828</t>
+          <t>0.0139819</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0.141732</t>
+          <t>0.0966229</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>0.227386</t>
+          <t>0.185446</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -4019,17 +4019,17 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>13.2842</t>
+          <t>18.376</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>42.8361</t>
+          <t>51.0571</t>
         </is>
       </c>
     </row>
@@ -4051,23 +4051,23 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.0134648</t>
+          <t>0.0125579</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.000605</t>
+          <t>0.001298</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -4077,27 +4077,27 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>0.000105</t>
+          <t>0.000201</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0.0141748</t>
+          <t>0.0140569</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>0.139967</t>
+          <t>0.0933979</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>0.220923</t>
+          <t>0.184058</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -4107,17 +4107,17 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15.2727</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42.4992</t>
         </is>
       </c>
     </row>
@@ -4139,23 +4139,23 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.0126168</t>
+          <t>0.0133499</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.000574</t>
+          <t>0.001154</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -4165,27 +4165,27 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>0.000303</t>
+          <t>0.000118</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0.0134938</t>
+          <t>0.0146219</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>0.10026</t>
+          <t>0.111572</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>0.163919</t>
+          <t>0.197406</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -4195,17 +4195,17 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15.7798</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47.3583</t>
         </is>
       </c>
     </row>
@@ -4232,18 +4232,18 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.0138318</t>
+          <t>0.018014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.000616</t>
+          <t>0.001476</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -4253,27 +4253,27 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>0.000197</t>
+          <t>0.000111</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>0.0146448</t>
+          <t>0.019601</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>0.135298</t>
+          <t>0.130178</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>0.216381</t>
+          <t>0.218104</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -4283,17 +4283,17 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>13.5181</t>
+          <t>14.1019</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>47.6932</t>
+          <t>48.5928</t>
         </is>
       </c>
     </row>
@@ -4320,18 +4320,18 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.0137968</t>
+          <t>0.0143109</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.00059</t>
+          <t>0.001652</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4341,27 +4341,27 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>0.000143</t>
+          <t>0.000121</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0.0145298</t>
+          <t>0.0160839</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>0.111945</t>
+          <t>0.12628</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>0.193604</t>
+          <t>0.229014</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -4371,17 +4371,17 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>13.4776</t>
+          <t>13.4704</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>45.6294</t>
+          <t>47.7893</t>
         </is>
       </c>
     </row>
@@ -4408,18 +4408,18 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.0112129</t>
+          <t>0.0125929</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.00059</t>
+          <t>0.001364</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -4429,27 +4429,27 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>0.000166</t>
+          <t>0.000105</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>0.0119689</t>
+          <t>0.0140619</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>0.0993881</t>
+          <t>0.105646</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>0.184074</t>
+          <t>0.19655</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -4459,17 +4459,17 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>13.3843</t>
+          <t>14.0131</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>46.8286</t>
+          <t>47.0723</t>
         </is>
       </c>
     </row>
@@ -4496,18 +4496,18 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0119969</t>
+          <t>0.0121819</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.000589</t>
+          <t>0.001051</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4517,27 +4517,27 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0.000201</t>
+          <t>0.000138</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0.0127869</t>
+          <t>0.0133709</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>0.136187</t>
+          <t>0.0992099</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>0.216972</t>
+          <t>0.190215</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -4547,17 +4547,17 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>13.9192</t>
+          <t>17.7507</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>55.6647</t>
+          <t>49.8698</t>
         </is>
       </c>
     </row>
@@ -4584,18 +4584,18 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.0145488</t>
+          <t>0.0123379</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.00063</t>
+          <t>0.001197</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4605,27 +4605,27 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0.000157</t>
+          <t>0.000111</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>0.0153358</t>
+          <t>0.0136459</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>0.108462</t>
+          <t>0.0993499</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>0.186074</t>
+          <t>0.189447</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -4635,17 +4635,17 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>13.2334</t>
+          <t>13.6363</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>47.1686</t>
+          <t>40.8643</t>
         </is>
       </c>
     </row>
@@ -4672,18 +4672,18 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.0136398</t>
+          <t>0.0119509</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.000583</t>
+          <t>0.001039</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4693,27 +4693,27 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>0.000141</t>
+          <t>0.000121</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0.0143638</t>
+          <t>0.0131109</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>0.0921672</t>
+          <t>0.119016</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>0.174079</t>
+          <t>0.208813</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -4723,17 +4723,17 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>12.9959</t>
+          <t>13.4393</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>47.4533</t>
+          <t>49.4826</t>
         </is>
       </c>
     </row>
@@ -4760,18 +4760,18 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.0120459</t>
+          <t>0.0122889</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.000586</t>
+          <t>0.001165</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4781,27 +4781,27 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>0.000201</t>
+          <t>0.000131</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>0.0128329</t>
+          <t>0.0135849</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>0.134645</t>
+          <t>0.128861</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>0.209663</t>
+          <t>0.218185</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -4811,17 +4811,17 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>17.5063</t>
+          <t>13.5697</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>60.762</t>
+          <t>47.2602</t>
         </is>
       </c>
     </row>
@@ -4848,18 +4848,18 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.0126808</t>
+          <t>0.0129159</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.000585</t>
+          <t>0.001264</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4869,27 +4869,27 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>0.000159</t>
+          <t>0.000111</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>0.0134248</t>
+          <t>0.0142909</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>0.119041</t>
+          <t>0.120033</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>0.203535</t>
+          <t>0.202811</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4899,17 +4899,17 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>14.1613</t>
+          <t>13.5077</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>48.7335</t>
+          <t>43.5239</t>
         </is>
       </c>
     </row>
@@ -4936,18 +4936,18 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.0139698</t>
+          <t>0.0121069</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.000591</t>
+          <t>0.001198</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4957,27 +4957,27 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>0.000166</t>
+          <t>0.000124</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>0.0147268</t>
+          <t>0.0134289</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>0.10993</t>
+          <t>0.0951018</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>0.189346</t>
+          <t>0.187628</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4987,17 +4987,17 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>13.5099</t>
+          <t>18.2723</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>43.6419</t>
+          <t>47.812</t>
         </is>
       </c>
     </row>
@@ -5019,23 +5019,23 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.0135818</t>
+          <t>0.0138859</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.000564</t>
+          <t>0.001263</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -5045,27 +5045,27 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>0.000278</t>
+          <t>0.000148</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>0.0144238</t>
+          <t>0.0152969</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>0.114786</t>
+          <t>0.134514</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>0.175063</t>
+          <t>0.242043</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -5075,17 +5075,17 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16.0346</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44.7811</t>
         </is>
       </c>
     </row>
@@ -5107,23 +5107,23 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.0132118</t>
+          <t>0.0123889</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.000584</t>
+          <t>0.001251</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -5133,27 +5133,27 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>0.000217</t>
+          <t>0.000122</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0.0140128</t>
+          <t>0.0137619</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>0.1748</t>
+          <t>0.0964999</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>0.258003</t>
+          <t>0.184914</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -5163,17 +5163,17 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15.6487</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46.2949</t>
         </is>
       </c>
     </row>
@@ -5200,18 +5200,18 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.0120818</t>
+          <t>0.0125129</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.000655</t>
+          <t>0.001296</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -5221,27 +5221,27 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>0.00033</t>
+          <t>0.000114</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0.0130668</t>
+          <t>0.0139229</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>0.178159</t>
+          <t>0.123867</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>0.260152</t>
+          <t>0.211476</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -5251,17 +5251,17 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>16.9682</t>
+          <t>16.7542</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>58.6046</t>
+          <t>53.5686</t>
         </is>
       </c>
     </row>
@@ -5283,23 +5283,23 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.0133628</t>
+          <t>0.0127129</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.000657</t>
+          <t>0.001483</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -5309,27 +5309,27 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>0.000149</t>
+          <t>0.000119</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>0.0141688</t>
+          <t>0.0143149</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>0.105225</t>
+          <t>0.116511</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>0.187455</t>
+          <t>0.20602</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -5339,17 +5339,17 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13.6217</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46.5413</t>
         </is>
       </c>
     </row>
@@ -5376,18 +5376,18 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.0116879</t>
+          <t>0.0130349</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.000618</t>
+          <t>0.001403</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -5397,27 +5397,27 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>0.000195</t>
+          <t>0.000139</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>0.0125009</t>
+          <t>0.0145769</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>0.135389</t>
+          <t>0.117016</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>0.214312</t>
+          <t>0.209467</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -5427,17 +5427,17 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>17.389</t>
+          <t>16.3296</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>58.0319</t>
+          <t>51.3029</t>
         </is>
       </c>
     </row>
@@ -5464,18 +5464,18 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.0138788</t>
+          <t>0.0133249</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.000596</t>
+          <t>0.001164</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -5485,27 +5485,27 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>0.000188</t>
+          <t>0.000129</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>0.0146628</t>
+          <t>0.0146179</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>0.182231</t>
+          <t>0.109202</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>0.263714</t>
+          <t>0.193733</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -5515,17 +5515,17 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>15.1499</t>
+          <t>17.8797</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>52.4619</t>
+          <t>51.9544</t>
         </is>
       </c>
     </row>
@@ -5552,18 +5552,18 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.0136298</t>
+          <t>0.0136609</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.000564</t>
+          <t>0.001241</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -5573,27 +5573,27 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>0.000235</t>
+          <t>9.9e-05</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0.0144288</t>
+          <t>0.0150009</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>0.142908</t>
+          <t>0.100995</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>0.224862</t>
+          <t>0.189738</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -5603,17 +5603,17 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>13.8761</t>
+          <t>13.9217</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>54.2663</t>
+          <t>45.9585</t>
         </is>
       </c>
     </row>
@@ -5640,18 +5640,18 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.0114489</t>
+          <t>0.0134119</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0.000581</t>
+          <t>0.000943</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5661,47 +5661,47 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>0.000191</t>
+          <t>0.000109</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>0.0122209</t>
+          <t>0.0144639</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>0.157944</t>
+          <t>0.101327</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>0.234761</t>
+          <t>0.183298</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>16.1409</t>
+          <t>18.4843</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>58.33</t>
+          <t>49.2378</t>
         </is>
       </c>
     </row>
@@ -5723,23 +5723,23 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.0133938</t>
+          <t>0.0128429</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.000586</t>
+          <t>0.001194</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5749,27 +5749,27 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0.000187</t>
+          <t>0.000126</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>0.0141668</t>
+          <t>0.0141629</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>0.142448</t>
+          <t>0.0960889</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>0.223512</t>
+          <t>0.2022</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -5779,17 +5779,17 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.2653</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47.9067</t>
         </is>
       </c>
     </row>
@@ -5816,18 +5816,18 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.0128838</t>
+          <t>0.0131579</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0.00057</t>
+          <t>0.001345</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5837,27 +5837,27 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>0.000174</t>
+          <t>0.000128</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>0.0136278</t>
+          <t>0.0146309</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>0.106205</t>
+          <t>0.0958859</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>0.185485</t>
+          <t>0.18881</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -5867,17 +5867,17 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>13.7118</t>
+          <t>13.4144</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>46.9741</t>
+          <t>43.106</t>
         </is>
       </c>
     </row>
@@ -5904,18 +5904,18 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.0142988</t>
+          <t>0.0127979</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.000575</t>
+          <t>0.00103</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5925,27 +5925,27 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>0.000282</t>
+          <t>0.000111</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0.0151558</t>
+          <t>0.0139389</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>0.163561</t>
+          <t>0.12744</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>0.246427</t>
+          <t>0.220868</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -5955,17 +5955,17 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>19.1331</t>
+          <t>13.623</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>59.2583</t>
+          <t>51.1482</t>
         </is>
       </c>
     </row>
@@ -5992,18 +5992,18 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.0125229</t>
+          <t>0.0131209</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0.000588</t>
+          <t>0.001151</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -6013,27 +6013,27 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>0.000315</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>0.0134259</t>
+          <t>0.0143719</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>0.147301</t>
+          <t>0.103117</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>0.229101</t>
+          <t>0.187509</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -6043,17 +6043,17 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>16.424</t>
+          <t>13.4416</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>54.9781</t>
+          <t>47.1838</t>
         </is>
       </c>
     </row>
@@ -6080,18 +6080,18 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.0141348</t>
+          <t>0.0126599</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.000589</t>
+          <t>0.001403</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -6101,27 +6101,27 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>0.000167</t>
+          <t>0.000107</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>0.0148908</t>
+          <t>0.0141699</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>0.102469</t>
+          <t>0.119469</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>0.186333</t>
+          <t>0.206784</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -6131,17 +6131,17 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>15.6321</t>
+          <t>13.4884</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>48.6013</t>
+          <t>42.9404</t>
         </is>
       </c>
     </row>
@@ -6163,23 +6163,23 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.0117759</t>
+          <t>0.0119519</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.000598</t>
+          <t>0.001128</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -6189,27 +6189,27 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>0.000182</t>
+          <t>0.000312</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0.0125559</t>
+          <t>0.0133919</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>0.125087</t>
+          <t>0.105325</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>0.204449</t>
+          <t>0.188472</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -6219,17 +6219,17 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>13.7197</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>46.8713</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6251,23 +6251,23 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.0132509</t>
+          <t>0.0126319</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0.000619</t>
+          <t>0.001197</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -6277,27 +6277,27 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>0.001256</t>
+          <t>0.000135</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0.0151259</t>
+          <t>0.0139639</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>0.0978173</t>
+          <t>0.0955508</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>0.164502</t>
+          <t>0.186059</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -6307,17 +6307,17 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.7644</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49.467</t>
         </is>
       </c>
     </row>
@@ -6344,18 +6344,18 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.0113429</t>
+          <t>0.0120199</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.000574</t>
+          <t>0.00114</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -6365,27 +6365,27 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>0.000139</t>
+          <t>0.000131</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.0120559</t>
+          <t>0.0132909</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>0.0938701</t>
+          <t>0.094136</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>0.174581</t>
+          <t>0.183647</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -6395,17 +6395,17 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>13.1104</t>
+          <t>15.3787</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>47.2162</t>
+          <t>43.5829</t>
         </is>
       </c>
     </row>
@@ -6432,18 +6432,18 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.0122478</t>
+          <t>0.0125059</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.000572</t>
+          <t>0.001146</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -6453,27 +6453,27 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>0.000194</t>
+          <t>0.000143</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>0.0130138</t>
+          <t>0.0137949</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>0.144441</t>
+          <t>0.130404</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>0.225132</t>
+          <t>0.217736</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -6483,17 +6483,17 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>13.9706</t>
+          <t>15.7798</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>53.0208</t>
+          <t>44.2784</t>
         </is>
       </c>
     </row>
@@ -6520,18 +6520,18 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.0121298</t>
+          <t>0.0117729</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.000597</t>
+          <t>0.00132</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -6541,27 +6541,27 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>0.000199</t>
+          <t>0.000132</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0.0129259</t>
+          <t>0.0132249</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>0.0984211</t>
+          <t>0.0966747</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>0.177583</t>
+          <t>0.187481</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -6571,17 +6571,17 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>15.286</t>
+          <t>18.4159</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>48.8307</t>
+          <t>47.9939</t>
         </is>
       </c>
     </row>
@@ -6608,18 +6608,18 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.0129538</t>
+          <t>0.0120939</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.000602</t>
+          <t>0.001397</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -6629,27 +6629,27 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>0.000163</t>
+          <t>0.000314</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>0.0137188</t>
+          <t>0.0138049</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>0.106878</t>
+          <t>0.127922</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>0.187532</t>
+          <t>0.222396</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -6659,17 +6659,17 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>13.461</t>
+          <t>13.52</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>51.036</t>
+          <t>45.3743</t>
         </is>
       </c>
     </row>
@@ -6691,23 +6691,23 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0.0143158</t>
+          <t>0.0133409</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.000615</t>
+          <t>0.00105</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -6717,27 +6717,27 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>0.000197</t>
+          <t>0.000131</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>0.0151278</t>
+          <t>0.0145219</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>0.169821</t>
+          <t>0.103644</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>0.250191</t>
+          <t>0.187343</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -6747,17 +6747,17 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15.3299</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42.1965</t>
         </is>
       </c>
     </row>
@@ -6790,12 +6790,12 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.0128148</t>
+          <t>0.0142879</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0.000557</t>
+          <t>0.001227</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6805,22 +6805,22 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>0.000201</t>
+          <t>0.000115</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>0.0135728</t>
+          <t>0.0156299</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>0.0925381</t>
+          <t>0.0958879</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>0.171602</t>
+          <t>0.180473</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -6840,12 +6840,12 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>21.8088</t>
+          <t>13.6984</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>50.0189</t>
+          <t>42.6973</t>
         </is>
       </c>
     </row>
@@ -6872,18 +6872,18 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0.0119328</t>
+          <t>0.0127949</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0.000569</t>
+          <t>0.00138</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6893,27 +6893,27 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>0.000176</t>
+          <t>0.000115</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>0.0126779</t>
+          <t>0.0142899</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>0.132144</t>
+          <t>0.0954249</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>0.211654</t>
+          <t>0.186147</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -6923,17 +6923,17 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>16.3862</t>
+          <t>13.788</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>56.7779</t>
+          <t>39.9582</t>
         </is>
       </c>
     </row>
@@ -6955,23 +6955,23 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.0133378</t>
+          <t>0.0123979</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0.000572</t>
+          <t>0.001316</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -6981,27 +6981,27 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>0.000201</t>
+          <t>0.000126</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>0.0141108</t>
+          <t>0.0138399</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>0.141436</t>
+          <t>0.127966</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>0.218651</t>
+          <t>0.217063</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -7011,17 +7011,17 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14.0597</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48.2805</t>
         </is>
       </c>
     </row>
@@ -7048,18 +7048,18 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.0132008</t>
+          <t>0.0121139</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0.000568</t>
+          <t>0.00121</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -7069,27 +7069,27 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>0.000183</t>
+          <t>0.000117</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>0.0139518</t>
+          <t>0.0134409</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>0.132242</t>
+          <t>0.112437</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>0.211154</t>
+          <t>0.203385</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -7099,17 +7099,17 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>17.9112</t>
+          <t>13.624</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>60.866</t>
+          <t>46.0726</t>
         </is>
       </c>
     </row>
@@ -7142,12 +7142,12 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.0128138</t>
+          <t>0.0124929</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0.00055</t>
+          <t>0.001122</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -7157,22 +7157,22 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>0.000203</t>
+          <t>0.000123</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0.0135668</t>
+          <t>0.0137379</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>0.0996402</t>
+          <t>0.105107</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>0.181935</t>
+          <t>0.197065</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -7192,12 +7192,12 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>21.9167</t>
+          <t>16.2435</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>57.5695</t>
+          <t>48.812</t>
         </is>
       </c>
     </row>
@@ -7224,18 +7224,18 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.0115889</t>
+          <t>0.0142289</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0.000629</t>
+          <t>0.00233</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -7245,27 +7245,27 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>0.000182</t>
+          <t>0.000238</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>0.0123999</t>
+          <t>0.0167969</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>0.129631</t>
+          <t>0.113673</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>0.203497</t>
+          <t>0.205661</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -7275,17 +7275,17 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>13.5792</t>
+          <t>15.7911</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>48.9037</t>
+          <t>42.3669</t>
         </is>
       </c>
     </row>
@@ -7307,23 +7307,23 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0.0125358</t>
+          <t>0.0121249</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0.000647</t>
+          <t>0.001215</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -7333,27 +7333,27 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>0.00029</t>
+          <t>0.000157</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>0.0134728</t>
+          <t>0.0134969</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>0.135058</t>
+          <t>0.0977489</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>0.219413</t>
+          <t>0.189601</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -7363,17 +7363,17 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.9915</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49.3668</t>
         </is>
       </c>
     </row>
@@ -7400,18 +7400,18 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.0113929</t>
+          <t>0.0128119</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0.000675</t>
+          <t>0.001122</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -7421,27 +7421,27 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>0.000152</t>
+          <t>0.000108</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>0.0122199</t>
+          <t>0.0140419</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>0.12204</t>
+          <t>0.127129</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>0.195937</t>
+          <t>0.209296</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -7451,17 +7451,17 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>13.7704</t>
+          <t>14.0473</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>50.9459</t>
+          <t>45.1153</t>
         </is>
       </c>
     </row>
@@ -7488,18 +7488,18 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.0127708</t>
+          <t>0.0122169</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0.000604</t>
+          <t>0.001206</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -7509,27 +7509,27 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>0.000202</t>
+          <t>0.000119</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>0.0135768</t>
+          <t>0.0135419</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>0.142222</t>
+          <t>0.102495</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>0.225698</t>
+          <t>0.193251</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -7539,17 +7539,17 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>18.1609</t>
+          <t>17.8507</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>59.1895</t>
+          <t>50.8508</t>
         </is>
       </c>
     </row>
@@ -7576,18 +7576,18 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.0108199</t>
+          <t>0.0124169</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0.000598</t>
+          <t>0.001377</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -7597,27 +7597,27 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>0.000147</t>
+          <t>0.000144</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>0.0115649</t>
+          <t>0.0139379</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>0.11291</t>
+          <t>0.103163</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>0.191423</t>
+          <t>0.188021</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -7627,17 +7627,17 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>13.4464</t>
+          <t>18.3218</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>50.5767</t>
+          <t>50.9286</t>
         </is>
       </c>
     </row>
@@ -7670,12 +7670,12 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.0115199</t>
+          <t>0.0127809</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.000583</t>
+          <t>0.00101</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -7685,22 +7685,22 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>0.000197</t>
+          <t>0.000117</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>0.0122999</t>
+          <t>0.0139079</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>0.0824521</t>
+          <t>0.0970278</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>0.162912</t>
+          <t>0.182423</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -7720,12 +7720,12 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>21.6698</t>
+          <t>13.4824</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>55.8255</t>
+          <t>43.0743</t>
         </is>
       </c>
     </row>
@@ -7747,23 +7747,23 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.0132428</t>
+          <t>0.0114529</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0.000581</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -7773,27 +7773,27 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>0.000291</t>
+          <t>0.00012</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>0.0141148</t>
+          <t>0.0128729</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>0.11845</t>
+          <t>0.0926699</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>0.18475</t>
+          <t>0.190477</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -7803,17 +7803,17 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16.2606</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45.448</t>
         </is>
       </c>
     </row>
@@ -7840,18 +7840,18 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0.0118489</t>
+          <t>0.0121189</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.000588</t>
+          <t>0.001441</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -7861,27 +7861,27 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>0.000177</t>
+          <t>0.000115</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>0.0126139</t>
+          <t>0.0136749</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>0.146222</t>
+          <t>0.120481</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>0.224821</t>
+          <t>0.208382</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -7891,17 +7891,17 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>13.734</t>
+          <t>13.6833</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>59.265</t>
+          <t>43.7248</t>
         </is>
       </c>
     </row>
@@ -7928,18 +7928,18 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0.0109119</t>
+          <t>0.0123079</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0.000623</t>
+          <t>0.00116</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -7949,27 +7949,27 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>0.000199</t>
+          <t>0.000127</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>0.0117339</t>
+          <t>0.0135949</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>0.120957</t>
+          <t>0.0940747</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>0.20438</t>
+          <t>0.209336</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -7979,17 +7979,17 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>13.9997</t>
+          <t>15.6436</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>52.0639</t>
+          <t>40.7902</t>
         </is>
       </c>
     </row>
@@ -8022,12 +8022,12 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0.0106729</t>
+          <t>0.0118909</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.000626</t>
+          <t>0.001092</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -8037,22 +8037,22 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>0.000224</t>
+          <t>0.00014</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>0.0115229</t>
+          <t>0.0131229</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>0.0987781</t>
+          <t>0.12482</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>0.175973</t>
+          <t>0.217753</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -8072,12 +8072,12 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>21.6535</t>
+          <t>18.378</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>53.4534</t>
+          <t>47.525</t>
         </is>
       </c>
     </row>
@@ -8104,18 +8104,18 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0.0117219</t>
+          <t>0.0132769</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.00062</t>
+          <t>0.001166</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -8125,27 +8125,27 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>0.000162</t>
+          <t>0.000112</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>0.0125039</t>
+          <t>0.0145549</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>0.11091</t>
+          <t>0.101944</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>0.193351</t>
+          <t>0.186246</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -8155,17 +8155,17 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>13.2442</t>
+          <t>13.8224</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>49.9794</t>
+          <t>42.8669</t>
         </is>
       </c>
     </row>
@@ -8187,23 +8187,23 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.0106709</t>
+          <t>0.0126519</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0.00062</t>
+          <t>0.001117</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -8213,27 +8213,27 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>0.000147</t>
+          <t>0.000326</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>0.0114379</t>
+          <t>0.0140949</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>0.117085</t>
+          <t>0.111557</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>0.195794</t>
+          <t>0.183547</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -8243,17 +8243,17 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>15.674</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>52.7016</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8275,23 +8275,23 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.0103019</t>
+          <t>0.0129339</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0.000605</t>
+          <t>0.001358</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -8301,27 +8301,27 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>0.000174</t>
+          <t>0.000271</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>0.0110809</t>
+          <t>0.0145629</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>0.135209</t>
+          <t>0.115728</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>0.218016</t>
+          <t>0.192038</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -8331,17 +8331,17 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>18.0818</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>53.0917</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8368,18 +8368,18 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.0117089</t>
+          <t>0.0121109</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0.000591</t>
+          <t>0.001348</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -8389,27 +8389,27 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>0.000159</t>
+          <t>0.000128</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>0.0124589</t>
+          <t>0.0135869</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>0.101098</t>
+          <t>0.0915068</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>0.181585</t>
+          <t>0.178739</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -8419,17 +8419,17 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>13.2641</t>
+          <t>15.515</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>43.8307</t>
+          <t>45.2524</t>
         </is>
       </c>
     </row>
@@ -8456,18 +8456,18 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0.0106509</t>
+          <t>0.0126279</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0.000626</t>
+          <t>0.001234</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -8477,27 +8477,27 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>0.000179</t>
+          <t>0.000131</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>0.0114559</t>
+          <t>0.0139929</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>0.125153</t>
+          <t>0.0991248</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>0.201791</t>
+          <t>0.191003</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -8507,17 +8507,17 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>13.7358</t>
+          <t>14.0753</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>48.8076</t>
+          <t>46.2482</t>
         </is>
       </c>
     </row>
@@ -8550,12 +8550,12 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.0112189</t>
+          <t>0.0116809</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.000598</t>
+          <t>0.001273</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -8565,22 +8565,22 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>0.000215</t>
+          <t>0.000115</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>0.0120319</t>
+          <t>0.0130689</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>0.110395</t>
+          <t>0.0946978</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>0.185506</t>
+          <t>0.185882</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -8600,12 +8600,12 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>21.7164</t>
+          <t>13.7271</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>50.0526</t>
+          <t>42.4849</t>
         </is>
       </c>
     </row>
@@ -8632,18 +8632,18 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0.0126659</t>
+          <t>0.0136969</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0.000622</t>
+          <t>0.001253</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -8653,27 +8653,27 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>0.000195</t>
+          <t>0.000114</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>0.0134829</t>
+          <t>0.0150639</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>0.138424</t>
+          <t>0.105386</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>0.219696</t>
+          <t>0.189375</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -8683,17 +8683,17 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>15.9446</t>
+          <t>17.9107</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>52.6793</t>
+          <t>48.7828</t>
         </is>
       </c>
     </row>
@@ -8726,12 +8726,12 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.0123308</t>
+          <t>0.0131139</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0.000645</t>
+          <t>0.001057</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -8741,22 +8741,22 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>0.000181</t>
+          <t>0.000575</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>0.0131568</t>
+          <t>0.0147459</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>0.145614</t>
+          <t>0.110094</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>0.229442</t>
+          <t>0.177412</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -8808,18 +8808,18 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.0111079</t>
+          <t>0.0118659</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0.000594</t>
+          <t>0.001217</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -8829,27 +8829,27 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>0.000168</t>
+          <t>0.000111</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>0.0118699</t>
+          <t>0.0131939</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>0.111794</t>
+          <t>0.095591</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>0.189775</t>
+          <t>0.190511</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -8859,17 +8859,17 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>16.5861</t>
+          <t>13.7124</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>53.9561</t>
+          <t>48.4175</t>
         </is>
       </c>
     </row>
@@ -8896,18 +8896,18 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.0111369</t>
+          <t>0.0129849</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0.00062</t>
+          <t>0.001169</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -8917,27 +8917,27 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>0.000176</t>
+          <t>0.000131</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>0.0119329</t>
+          <t>0.0142849</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>0.0980422</t>
+          <t>0.105039</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>0.17803</t>
+          <t>0.195205</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -8947,17 +8947,17 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>15.1498</t>
+          <t>17.9253</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>51.1421</t>
+          <t>50.3554</t>
         </is>
       </c>
     </row>
@@ -8984,18 +8984,18 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.0117589</t>
+          <t>0.0128339</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0.000579</t>
+          <t>0.001237</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -9005,27 +9005,27 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>0.000205</t>
+          <t>0.000114</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>0.0125429</t>
+          <t>0.0141849</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>0.0992941</t>
+          <t>0.127848</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>0.181981</t>
+          <t>0.219398</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -9035,17 +9035,17 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>17.969</t>
+          <t>13.6059</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>62.2768</t>
+          <t>45.9736</t>
         </is>
       </c>
     </row>
@@ -9067,23 +9067,23 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0.0122158</t>
+          <t>0.0146369</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0.000609</t>
+          <t>0.001355</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -9093,27 +9093,27 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>0.000202</t>
+          <t>0.000124</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>0.0130268</t>
+          <t>0.0161159</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>0.162351</t>
+          <t>0.109905</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>0.237776</t>
+          <t>0.213703</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -9123,17 +9123,17 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13.9922</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43.2436</t>
         </is>
       </c>
     </row>
@@ -9166,12 +9166,12 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0.0108339</t>
+          <t>0.0168109</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.000579</t>
+          <t>0.001224</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -9181,22 +9181,22 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>0.000571</t>
+          <t>0.000338</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>0.0119839</t>
+          <t>0.0183729</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>0.0846442</t>
+          <t>0.0947208</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>0.147208</t>
+          <t>0.17745</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -9248,18 +9248,18 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0.0108439</t>
+          <t>0.0123139</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0.000586</t>
+          <t>0.001197</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -9269,27 +9269,27 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>0.000208</t>
+          <t>0.00014</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>0.0116379</t>
+          <t>0.0136509</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>0.0983632</t>
+          <t>0.105152</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>0.179679</t>
+          <t>0.200216</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -9299,17 +9299,17 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>15.4218</t>
+          <t>15.5553</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>48.8162</t>
+          <t>42.2026</t>
         </is>
       </c>
     </row>
